--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="区域" sheetId="4" r:id="rId1"/>
@@ -13,13 +13,19 @@
     <sheet name="巡检管理" sheetId="3" r:id="rId4"/>
     <sheet name="巡检记录" sheetId="6" r:id="rId5"/>
     <sheet name="异常信息" sheetId="5" r:id="rId6"/>
+    <sheet name="电站" sheetId="8" r:id="rId7"/>
+    <sheet name="设备信息" sheetId="9" r:id="rId8"/>
+    <sheet name="用户" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="OLE_LINK7" localSheetId="8">用户!$G$9</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="317">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -854,13 +860,254 @@
   </si>
   <si>
     <t>/*关系表*/</t>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">areaId  </t>
+  </si>
+  <si>
+    <t>areaCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aLevel  </t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>areaFlag</t>
+  </si>
+  <si>
+    <t>区域id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级区域id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>数据类型（精度范围）</t>
+  </si>
+  <si>
+    <t>允许为空Y/N</t>
+  </si>
+  <si>
+    <t>唯一Y/N</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>约束条件/说明</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>主键，表示电站的ID，与PS_position表内ID值一致</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nvarchar(32)</t>
+  </si>
+  <si>
+    <t>电站名称，名称唯一</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Decimal(18,2)</t>
+  </si>
+  <si>
+    <t>电站容量，又称装机量</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>电站占地面积</t>
+  </si>
+  <si>
+    <t>Part_num</t>
+  </si>
+  <si>
+    <t>光伏板数量</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>业主</t>
+  </si>
+  <si>
+    <t>investor</t>
+  </si>
+  <si>
+    <t>投资方</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>电站所属省份</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>decimal(10,6)</t>
+  </si>
+  <si>
+    <t>电站地址所在经度，固定小数6位</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>电站地址所在纬度</t>
+  </si>
+  <si>
+    <t>Build_time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>建站时间</t>
+  </si>
+  <si>
+    <t>Station_manage</t>
+  </si>
+  <si>
+    <t>电站管理权限</t>
+  </si>
+  <si>
+    <t>User_manage</t>
+  </si>
+  <si>
+    <t>用户管理权限</t>
+  </si>
+  <si>
+    <t>Device_manage</t>
+  </si>
+  <si>
+    <t>设备管理权限</t>
+  </si>
+  <si>
+    <t>Station_num</t>
+  </si>
+  <si>
+    <t>最大电站数</t>
+  </si>
+  <si>
+    <t>User_num</t>
+  </si>
+  <si>
+    <t>最大用户数</t>
+  </si>
+  <si>
+    <t>主键，表示设备的ID</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>设备品牌</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>设备类型，主要有电表、逆变器、汇流箱和气象站等</t>
+  </si>
+  <si>
+    <t>主键，表示用户的ID</t>
+  </si>
+  <si>
+    <t>User_name</t>
+  </si>
+  <si>
+    <t>登录用户名</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PS_id</t>
+  </si>
+  <si>
+    <t>电站ID，外键，来自PS_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Role_id</t>
+  </si>
+  <si>
+    <t>角色ID，外键，来自Role</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -875,16 +1122,50 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -892,12 +1173,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1202,67 +1559,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C15" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>242</v>
+      </c>
+      <c r="C17" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1756,7 +2170,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2227,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2818,4 +3234,710 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="5"/>
+      <c r="G15" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>302</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="区域" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="327">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1101,6 +1101,37 @@
   </si>
   <si>
     <t>角色ID，外键，来自Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/**                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param areaId 区域id                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param psId 电站id                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param userId 用户id                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param equipmentId 设备id                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @return                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @throws Exception                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */                                                                                                 </t>
+  </si>
+  <si>
+    <t>public String checkById(String areaId,int psId,int userId,int equipmentId)throws Exception;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2168,10 +2199,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2398,6 +2429,56 @@
       </c>
       <c r="E41" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B48" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B49" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B52" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="337">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1131,6 +1131,46 @@
   </si>
   <si>
     <t>public String checkById(String areaId,int psId,int userId,int equipmentId)throws Exception;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getInspectionByPsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过电站id查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getManagergetCheckById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String:wrong,correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getManagerPsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过电站id查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaId，userId，psId，equipmentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2199,16 +2239,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="36.625" customWidth="1"/>
-    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="38.625" customWidth="1"/>
     <col min="5" max="5" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2431,53 +2472,81 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>317</v>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B42" t="s">
+        <v>330</v>
+      </c>
+      <c r="C42" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" t="s">
+        <v>335</v>
+      </c>
+      <c r="E42" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B43" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" t="s">
+        <v>334</v>
+      </c>
+      <c r="D43" t="s">
+        <v>336</v>
+      </c>
+      <c r="E43" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B54" t="s">
         <v>326</v>
       </c>
     </row>
@@ -2490,10 +2559,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2710,6 +2779,20 @@
         <v>237</v>
       </c>
       <c r="E34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>327</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" t="s">
+        <v>329</v>
+      </c>
+      <c r="E35" t="s">
         <v>115</v>
       </c>
     </row>

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="区域" sheetId="4" r:id="rId1"/>
@@ -13,19 +13,20 @@
     <sheet name="巡检管理" sheetId="3" r:id="rId4"/>
     <sheet name="巡检记录" sheetId="6" r:id="rId5"/>
     <sheet name="异常信息" sheetId="5" r:id="rId6"/>
-    <sheet name="电站" sheetId="8" r:id="rId7"/>
-    <sheet name="设备信息" sheetId="9" r:id="rId8"/>
-    <sheet name="用户" sheetId="10" r:id="rId9"/>
+    <sheet name="逾期处理" sheetId="11" r:id="rId7"/>
+    <sheet name="电站" sheetId="8" r:id="rId8"/>
+    <sheet name="设备信息" sheetId="9" r:id="rId9"/>
+    <sheet name="用户" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK7" localSheetId="8">用户!$G$9</definedName>
+    <definedName name="OLE_LINK7" localSheetId="9">用户!$G$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="361">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -806,371 +807,453 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>巡检报告</t>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toInspection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addInspection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateInspection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteInspection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getInspectionById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加巡记录信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新巡检记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除巡检记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过主键记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询所有巡检记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/*关系表*/</t>
+  </si>
+  <si>
+    <t>字段说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">areaId  </t>
+  </si>
+  <si>
+    <t>areaCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aLevel  </t>
+  </si>
+  <si>
+    <t>parentId</t>
+  </si>
+  <si>
+    <t>areaFlag</t>
+  </si>
+  <si>
+    <t>区域id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上级区域id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>字段名称</t>
+  </si>
+  <si>
+    <t>数据类型（精度范围）</t>
+  </si>
+  <si>
+    <t>允许为空Y/N</t>
+  </si>
+  <si>
+    <t>唯一Y/N</t>
+  </si>
+  <si>
+    <t>默认值</t>
+  </si>
+  <si>
+    <t>约束条件/说明</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>主键，表示电站的ID，与PS_position表内ID值一致</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>nvarchar(32)</t>
+  </si>
+  <si>
+    <t>电站名称，名称唯一</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>Decimal(18,2)</t>
+  </si>
+  <si>
+    <t>电站容量，又称装机量</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>电站占地面积</t>
+  </si>
+  <si>
+    <t>Part_num</t>
+  </si>
+  <si>
+    <t>光伏板数量</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>业主</t>
+  </si>
+  <si>
+    <t>investor</t>
+  </si>
+  <si>
+    <t>投资方</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>电站所属省份</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>decimal(10,6)</t>
+  </si>
+  <si>
+    <t>电站地址所在经度，固定小数6位</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>电站地址所在纬度</t>
+  </si>
+  <si>
+    <t>Build_time</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>建站时间</t>
+  </si>
+  <si>
+    <t>Station_manage</t>
+  </si>
+  <si>
+    <t>电站管理权限</t>
+  </si>
+  <si>
+    <t>User_manage</t>
+  </si>
+  <si>
+    <t>用户管理权限</t>
+  </si>
+  <si>
+    <t>Device_manage</t>
+  </si>
+  <si>
+    <t>设备管理权限</t>
+  </si>
+  <si>
+    <t>Station_num</t>
+  </si>
+  <si>
+    <t>最大电站数</t>
+  </si>
+  <si>
+    <t>User_num</t>
+  </si>
+  <si>
+    <t>最大用户数</t>
+  </si>
+  <si>
+    <t>主键，表示设备的ID</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>设备品牌</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>设备型号</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>设备类型，主要有电表、逆变器、汇流箱和气象站等</t>
+  </si>
+  <si>
+    <t>主键，表示用户的ID</t>
+  </si>
+  <si>
+    <t>User_name</t>
+  </si>
+  <si>
+    <t>登录用户名</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>密码</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   PS_id</t>
+  </si>
+  <si>
+    <t>电站ID，外键，来自PS_information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Role_id</t>
+  </si>
+  <si>
+    <t>角色ID，外键，来自Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/**                                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param areaId 区域id                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param psId 电站id                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param userId 用户id                                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @param equipmentId 设备id                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @return                                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> * @throws Exception                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */                                                                                                 </t>
+  </si>
+  <si>
+    <t>public String checkById(String areaId,int psId,int userId,int equipmentId)throws Exception;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getInspectionByPsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过电站id查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getManagergetCheckById</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String:wrong,correct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getManagerPsId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过电站id查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>areaId，userId，psId，equipmentId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>private int checkStatus;//检查状态 ，0：错误，1：诊断，2：处理中，3：完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>实检日期</t>
-  </si>
-  <si>
-    <t>巡检报告</t>
-  </si>
-  <si>
-    <t>巡检状态</t>
-  </si>
-  <si>
-    <t>jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toInspection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addInspection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>updateInspection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>deleteInspection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getInspectionById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加巡记录信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新巡检记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除巡检记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过主键记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询所有巡检记录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/*关系表*/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巡检状态,0:未完成，1：已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期查询数据展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[manageId=IM14577629363890000, inspectionId=In14577650698160000, psId=82, psName=西藏那曲双湖电站, areaId=14571890869610003, areaName=上海, equipmentId=10, equipmentName=逆变器, userId=65, userName=andy, tel=13520029132, email=bjxiaowen@126.com, inspectionPeriod=0, inspectionReport=我们正在努力处理中！！！！我们已经处理完了！！, currDate=null, nextDate=null, shouldDate=2016-02-12, actualDate=2016-02-12, inspectionStatus=0, overdueDays=30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[manageId=IM14577629363890000, inspectionId=In14577652263700000, psId=82, psName=西藏那曲双湖电站, areaId=14571890869610003, areaName=上海, equipmentId=10, equipmentName=逆变器, userId=65, userName=andy, tel=13520029132, email=bjxiaowen@126.com, inspectionPeriod=0, inspectionReport=我们正在努力处理中！！！！我们已经处理完了！！, currDate=null, nextDate=null, shouldDate=2016-02-12, actualDate=2016-02-12, inspectionStatus=0, overdueDays=30]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>字段说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">areaId  </t>
-  </si>
-  <si>
-    <t>areaCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">aLevel  </t>
-  </si>
-  <si>
-    <t>parentId</t>
-  </si>
-  <si>
-    <t>areaFlag</t>
-  </si>
-  <si>
-    <t>区域id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>区域名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上级区域id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否区县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>字段名称</t>
-  </si>
-  <si>
-    <t>数据类型（精度范围）</t>
-  </si>
-  <si>
-    <t>允许为空Y/N</t>
-  </si>
-  <si>
-    <t>唯一Y/N</t>
-  </si>
-  <si>
-    <t>默认值</t>
-  </si>
-  <si>
-    <t>约束条件/说明</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>主键，表示电站的ID，与PS_position表内ID值一致</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>nvarchar(32)</t>
-  </si>
-  <si>
-    <t>电站名称，名称唯一</t>
-  </si>
-  <si>
-    <t>capacity</t>
-  </si>
-  <si>
-    <t>Decimal(18,2)</t>
-  </si>
-  <si>
-    <t>电站容量，又称装机量</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>电站占地面积</t>
-  </si>
-  <si>
-    <t>Part_num</t>
-  </si>
-  <si>
-    <t>光伏板数量</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
-    <t>业主</t>
-  </si>
-  <si>
-    <t>investor</t>
-  </si>
-  <si>
-    <t>投资方</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>电站所属省份</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>decimal(10,6)</t>
-  </si>
-  <si>
-    <t>电站地址所在经度，固定小数6位</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>电站地址所在纬度</t>
-  </si>
-  <si>
-    <t>Build_time</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>建站时间</t>
-  </si>
-  <si>
-    <t>Station_manage</t>
-  </si>
-  <si>
-    <t>电站管理权限</t>
-  </si>
-  <si>
-    <t>User_manage</t>
-  </si>
-  <si>
-    <t>用户管理权限</t>
-  </si>
-  <si>
-    <t>Device_manage</t>
-  </si>
-  <si>
-    <t>设备管理权限</t>
-  </si>
-  <si>
-    <t>Station_num</t>
-  </si>
-  <si>
-    <t>最大电站数</t>
-  </si>
-  <si>
-    <t>User_num</t>
-  </si>
-  <si>
-    <t>最大用户数</t>
-  </si>
-  <si>
-    <t>主键，表示设备的ID</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>设备品牌</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>设备型号</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>设备类型，主要有电表、逆变器、汇流箱和气象站等</t>
-  </si>
-  <si>
-    <t>主键，表示用户的ID</t>
-  </si>
-  <si>
-    <t>User_name</t>
-  </si>
-  <si>
-    <t>登录用户名</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>密码</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>telephone</t>
-  </si>
-  <si>
-    <t>联系电话</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>电子邮箱</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   PS_id</t>
-  </si>
-  <si>
-    <t>电站ID，外键，来自PS_information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Role_id</t>
-  </si>
-  <si>
-    <t>角色ID，外键，来自Role</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/**                                                                                                 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> *                                                                                                  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * @param areaId 区域id                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * @param psId 电站id                                                                               </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * @param userId 用户id                                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * @param equipmentId 设备id                                                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * @return                                                                                          </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> * @throws Exception                                                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> */                                                                                                 </t>
-  </si>
-  <si>
-    <t>public String checkById(String areaId,int psId,int userId,int equipmentId)throws Exception;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getInspectionByPsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过电站id查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getManagergetCheckById</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>校验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>String:wrong,correct</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getManagerPsId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过电站id查询</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>areaId，userId，psId，equipmentId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psId</t>
+    <t>manageId;// 管理id</t>
+  </si>
+  <si>
+    <t>inspectionId;// 巡检id</t>
+  </si>
+  <si>
+    <t>psId;// 电站id</t>
+  </si>
+  <si>
+    <t>psName;// 电站名称</t>
+  </si>
+  <si>
+    <t>areaName;// 区域名称</t>
+  </si>
+  <si>
+    <t>equipmentName;// 设备名称</t>
+  </si>
+  <si>
+    <t>userName;// 用户名</t>
+  </si>
+  <si>
+    <t>tel;// 电话号码</t>
+  </si>
+  <si>
+    <t>email;// 邮箱</t>
+  </si>
+  <si>
+    <t>inspectionPeriod;// 巡检周期</t>
+  </si>
+  <si>
+    <t>inspectionReport;// 巡检报告</t>
+  </si>
+  <si>
+    <t>nextDate;// 下次巡检日期</t>
+  </si>
+  <si>
+    <t>shouldDate;//应检日期</t>
+  </si>
+  <si>
+    <t>actualDate;//实检日期</t>
+  </si>
+  <si>
+    <t>inspectionStatus;//巡检状态,0:未完成，1：已完成</t>
+  </si>
+  <si>
+    <t>overdueDays;//逾期天数</t>
+  </si>
+  <si>
+    <t>List&lt;JointInspection&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getInspectionOverdue  不需要传参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1648,7 +1731,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -1693,23 +1776,23 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -1717,37 +1800,244 @@
         <v>53</v>
       </c>
       <c r="C16" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C17" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C18" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C19" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -2241,8 +2531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2469,32 +2759,32 @@
         <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>115</v>
+        <v>358</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C42" t="s">
+        <v>329</v>
+      </c>
+      <c r="D42" t="s">
+        <v>333</v>
+      </c>
+      <c r="E42" t="s">
         <v>330</v>
-      </c>
-      <c r="C42" t="s">
-        <v>331</v>
-      </c>
-      <c r="D42" t="s">
-        <v>335</v>
-      </c>
-      <c r="E42" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C43" t="s">
+        <v>332</v>
+      </c>
+      <c r="D43" t="s">
         <v>334</v>
-      </c>
-      <c r="D43" t="s">
-        <v>336</v>
       </c>
       <c r="E43" t="s">
         <v>115</v>
@@ -2502,52 +2792,52 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B46" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B47" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B48" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B49" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B50" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B51" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B52" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B53" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B54" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2561,14 +2851,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
@@ -2659,7 +2949,7 @@
         <v>219</v>
       </c>
       <c r="C20" t="s">
-        <v>224</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -2667,7 +2957,7 @@
         <v>220</v>
       </c>
       <c r="C21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -2675,12 +2965,12 @@
         <v>221</v>
       </c>
       <c r="C22" t="s">
-        <v>226</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -2709,7 +2999,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C29" t="s">
         <v>193</v>
@@ -2720,10 +3010,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B30" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D30" t="s">
         <v>114</v>
@@ -2734,10 +3024,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D31" t="s">
         <v>114</v>
@@ -2748,10 +3038,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C32" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D32" t="s">
         <v>205</v>
@@ -2759,10 +3049,10 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C33" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D33" t="s">
         <v>206</v>
@@ -2776,7 +3066,7 @@
         <v>112</v>
       </c>
       <c r="C34" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E34" t="s">
         <v>115</v>
@@ -2784,13 +3074,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D35" t="s">
         <v>327</v>
-      </c>
-      <c r="C35" t="s">
-        <v>328</v>
-      </c>
-      <c r="D35" t="s">
-        <v>329</v>
       </c>
       <c r="E35" t="s">
         <v>115</v>
@@ -2805,16 +3095,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="20.75" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
@@ -3290,69 +3580,60 @@
         <v>160</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C115" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B118" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
-        <v>65</v>
-      </c>
-      <c r="C120" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" t="s">
-        <v>21</v>
-      </c>
-      <c r="E120" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B121" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="C121" t="s">
-        <v>165</v>
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>21</v>
       </c>
       <c r="E121" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B122" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C122" t="s">
-        <v>166</v>
-      </c>
-      <c r="D122" t="s">
-        <v>114</v>
+        <v>165</v>
       </c>
       <c r="E122" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B123" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C123" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="D123" t="s">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="E123" t="s">
         <v>109</v>
@@ -3360,37 +3641,51 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B124" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="D124" t="s">
-        <v>169</v>
+        <v>168</v>
+      </c>
+      <c r="E124" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B125" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C125" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D125" t="s">
         <v>169</v>
       </c>
-      <c r="E125" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B126" t="s">
+        <v>172</v>
+      </c>
+      <c r="C126" t="s">
+        <v>111</v>
+      </c>
+      <c r="D126" t="s">
+        <v>169</v>
+      </c>
+      <c r="E126" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B127" t="s">
         <v>173</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>113</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E127" t="s">
         <v>115</v>
       </c>
     </row>
@@ -3401,6 +3696,153 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -3412,25 +3854,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3441,17 +3883,17 @@
         <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
@@ -3459,20 +3901,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
@@ -3480,20 +3922,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3501,20 +3943,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3522,20 +3964,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3543,20 +3985,20 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3564,20 +4006,20 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3585,20 +4027,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3606,20 +4048,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3627,20 +4069,20 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3648,20 +4090,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3669,20 +4111,20 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E13" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3690,20 +4132,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E14" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3711,20 +4153,20 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E15" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3732,20 +4174,20 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3753,20 +4195,20 @@
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C17" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F17" s="5"/>
       <c r="G17" s="6" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3776,7 +4218,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -3788,25 +4230,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
@@ -3817,17 +4259,17 @@
         <v>46</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>260</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3835,20 +4277,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F3" s="5"/>
       <c r="G3" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
@@ -3856,20 +4298,20 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3877,227 +4319,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="区域" sheetId="4" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="电站" sheetId="8" r:id="rId8"/>
     <sheet name="设备信息" sheetId="9" r:id="rId9"/>
     <sheet name="用户" sheetId="10" r:id="rId10"/>
+    <sheet name="组件" sheetId="13" r:id="rId11"/>
+    <sheet name="蓄电池" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK7" localSheetId="9">用户!$G$9</definedName>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="425">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1254,6 +1256,261 @@
   </si>
   <si>
     <t>getInspectionOverdue  不需要传参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bichart.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图表默认显示页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCapacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPower</t>
+  </si>
+  <si>
+    <t>totalPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计时间==采集时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数输出功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计基本信息，1条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一天24小时数据，多条数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件容量：4,853 总输出功率：1,342 采集时刻：8:00这个文字需要在图表的下方显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>展示字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数规则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池剩余容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池总容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总输出功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总输出功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏AH(曲线图)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字下移分2行显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数输出功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpptTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1261,7 +1518,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1304,8 +1561,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1318,8 +1584,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1379,11 +1651,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1409,6 +1696,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1715,8 +2004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1838,7 +2127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -2033,6 +2322,465 @@
       <c r="F9" s="5"/>
       <c r="G9" s="6" t="s">
         <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
+    <col min="5" max="5" width="16.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" t="s">
+        <v>364</v>
+      </c>
+      <c r="D4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>365</v>
+      </c>
+      <c r="C5" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" t="s">
+        <v>371</v>
+      </c>
+      <c r="D9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>371</v>
+      </c>
+      <c r="C16" t="s">
+        <v>376</v>
+      </c>
+      <c r="D16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>375</v>
+      </c>
+      <c r="D17" t="s">
+        <v>379</v>
+      </c>
+      <c r="E17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C18" t="s">
+        <v>382</v>
+      </c>
+      <c r="D18" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>383</v>
+      </c>
+      <c r="D19" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D22" t="s">
+        <v>379</v>
+      </c>
+      <c r="E22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>370</v>
+      </c>
+      <c r="C20" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>370</v>
+      </c>
+      <c r="C21" t="s">
+        <v>370</v>
+      </c>
+      <c r="D21" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>371</v>
+      </c>
+      <c r="C27" t="s">
+        <v>376</v>
+      </c>
+      <c r="D27" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>413</v>
+      </c>
+      <c r="D28" t="s">
+        <v>415</v>
+      </c>
+      <c r="E28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>416</v>
+      </c>
+      <c r="D29" t="s">
+        <v>417</v>
+      </c>
+      <c r="E29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>419</v>
+      </c>
+      <c r="D30" t="s">
+        <v>415</v>
+      </c>
+      <c r="E30" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" t="s">
+        <v>415</v>
+      </c>
+      <c r="E31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>422</v>
+      </c>
+      <c r="D32" t="s">
+        <v>415</v>
+      </c>
+      <c r="E32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
+        <v>370</v>
+      </c>
+      <c r="C34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D34" t="s">
+        <v>368</v>
+      </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>381</v>
+      </c>
+      <c r="D35" t="s">
+        <v>379</v>
+      </c>
+      <c r="E35" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -2045,7 +2793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3699,7 +4447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -3846,7 +4594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -2514,7 +2514,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="区域" sheetId="4" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="用户" sheetId="10" r:id="rId10"/>
     <sheet name="组件" sheetId="13" r:id="rId11"/>
     <sheet name="蓄电池" sheetId="14" r:id="rId12"/>
+    <sheet name="控制器" sheetId="15" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK7" localSheetId="9">用户!$G$9</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="462">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1259,10 +1260,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bichart.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>图表默认显示页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1511,6 +1508,158 @@
   </si>
   <si>
     <t>电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器中组件的输入不需要了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出返回数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：1：输出过载，0：输出正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入返回数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toBatteryVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBatteryVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toControlOutShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getControlOutShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toControlInShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getControlInShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2332,10 +2481,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2347,159 +2496,201 @@
     <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>362</v>
       </c>
-      <c r="B1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
         <v>368</v>
       </c>
-      <c r="C4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
-        <v>365</v>
-      </c>
-      <c r="C5" t="s">
-        <v>366</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>372</v>
+      </c>
+      <c r="C13" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C19" t="s">
+        <v>375</v>
+      </c>
+      <c r="D19" t="s">
+        <v>376</v>
+      </c>
+      <c r="E19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" t="s">
+        <v>378</v>
+      </c>
+      <c r="E20" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>381</v>
+      </c>
+      <c r="D21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" t="s">
+        <v>376</v>
+      </c>
+      <c r="E24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>369</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B9" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" t="s">
-        <v>371</v>
-      </c>
-      <c r="D9" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>371</v>
-      </c>
-      <c r="C16" t="s">
-        <v>376</v>
-      </c>
-      <c r="D16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E16" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C17" t="s">
-        <v>375</v>
-      </c>
-      <c r="D17" t="s">
-        <v>379</v>
-      </c>
-      <c r="E17" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C18" t="s">
-        <v>382</v>
-      </c>
-      <c r="D18" t="s">
-        <v>379</v>
-      </c>
-      <c r="E18" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
-        <v>383</v>
-      </c>
-      <c r="D19" t="s">
-        <v>384</v>
-      </c>
-      <c r="E19" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>370</v>
-      </c>
-      <c r="C21" t="s">
-        <v>376</v>
-      </c>
-      <c r="D21" t="s">
-        <v>377</v>
-      </c>
-      <c r="E21" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
-        <v>381</v>
-      </c>
-      <c r="D22" t="s">
-        <v>379</v>
-      </c>
-      <c r="E22" t="s">
-        <v>391</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>443</v>
+      </c>
+      <c r="B30" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" t="s">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -2511,10 +2702,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2526,266 +2717,728 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C2" s="10"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="10" t="s">
         <v>397</v>
-      </c>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>398</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
         <v>399</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>400</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="10" t="s">
         <v>403</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
-        <v>404</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="10" t="s">
         <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10" t="s">
-        <v>406</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="10" t="s">
         <v>407</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10" t="s">
-        <v>408</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="10" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>411</v>
       </c>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>448</v>
+      </c>
       <c r="B15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C15" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>444</v>
+      </c>
+      <c r="B16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>367</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>365</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>367</v>
+      <c r="D18" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="B19" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
-      <c r="D19" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="D22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>369</v>
+      </c>
+      <c r="C23" t="s">
         <v>370</v>
       </c>
-      <c r="C20" t="s">
-        <v>371</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="D23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D24" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>370</v>
       </c>
-      <c r="C21" t="s">
-        <v>370</v>
-      </c>
-      <c r="D21" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>371</v>
-      </c>
-      <c r="C27" t="s">
-        <v>376</v>
-      </c>
-      <c r="D27" t="s">
-        <v>368</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C30" t="s">
+        <v>375</v>
+      </c>
+      <c r="D30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>413</v>
-      </c>
-      <c r="D28" t="s">
-        <v>415</v>
-      </c>
-      <c r="E28" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>416</v>
-      </c>
-      <c r="D29" t="s">
-        <v>417</v>
-      </c>
-      <c r="E29" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>419</v>
-      </c>
-      <c r="D30" t="s">
-        <v>415</v>
-      </c>
-      <c r="E30" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D31" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E31" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
+        <v>415</v>
+      </c>
+      <c r="D32" t="s">
+        <v>416</v>
+      </c>
+      <c r="E32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>418</v>
+      </c>
+      <c r="D33" t="s">
+        <v>414</v>
+      </c>
+      <c r="E33" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
+        <v>420</v>
+      </c>
+      <c r="D34" t="s">
+        <v>414</v>
+      </c>
+      <c r="E34" t="s">
         <v>422</v>
-      </c>
-      <c r="D32" t="s">
-        <v>415</v>
-      </c>
-      <c r="E32" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
-        <v>370</v>
-      </c>
-      <c r="C34" t="s">
-        <v>376</v>
-      </c>
-      <c r="D34" t="s">
-        <v>368</v>
-      </c>
-      <c r="E34" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>381</v>
+        <v>421</v>
       </c>
       <c r="D35" t="s">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="E35" t="s">
-        <v>391</v>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" t="s">
+        <v>375</v>
+      </c>
+      <c r="D37" t="s">
+        <v>367</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>380</v>
+      </c>
+      <c r="D38" t="s">
+        <v>378</v>
+      </c>
+      <c r="E38" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>369</v>
+      </c>
+      <c r="C14" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" t="s">
+        <v>375</v>
+      </c>
+      <c r="D18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" t="s">
+        <v>428</v>
+      </c>
+      <c r="E20" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>420</v>
+      </c>
+      <c r="D21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>421</v>
+      </c>
+      <c r="D22" t="s">
+        <v>378</v>
+      </c>
+      <c r="E22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>432</v>
+      </c>
+      <c r="D26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>433</v>
+      </c>
+      <c r="D27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>434</v>
+      </c>
+      <c r="D28" t="s">
+        <v>436</v>
+      </c>
+      <c r="E28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>435</v>
+      </c>
+      <c r="D29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>458</v>
+      </c>
+      <c r="B32" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>459</v>
+      </c>
+      <c r="B33" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" t="s">
+        <v>364</v>
+      </c>
+      <c r="E41" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>427</v>
+      </c>
+      <c r="D42" t="s">
+        <v>428</v>
+      </c>
+      <c r="E42" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>420</v>
+      </c>
+      <c r="D43" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C46" t="s">
+        <v>375</v>
+      </c>
+      <c r="D46" t="s">
+        <v>367</v>
+      </c>
+      <c r="E46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>430</v>
+      </c>
+      <c r="D47" t="s">
+        <v>378</v>
+      </c>
+      <c r="E47" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
+        <v>432</v>
+      </c>
+      <c r="D48" t="s">
+        <v>378</v>
+      </c>
+      <c r="E48" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>433</v>
+      </c>
+      <c r="D49" t="s">
+        <v>378</v>
+      </c>
+      <c r="E49" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
+        <v>434</v>
+      </c>
+      <c r="D50" t="s">
+        <v>436</v>
+      </c>
+      <c r="E50" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>435</v>
+      </c>
+      <c r="D51" t="s">
+        <v>364</v>
+      </c>
+      <c r="E51" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="区域" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="476">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1660,6 +1660,62 @@
   </si>
   <si>
     <t>battery.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>machineState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：机器失效，0：正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出状态  1：输出过载，0：输出正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2704,8 +2760,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3008,15 +3064,16 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
@@ -3092,7 +3149,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C14" t="s">
         <v>370</v>
@@ -3112,12 +3169,23 @@
         <v>387</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C16" t="s">
+        <v>463</v>
+      </c>
+      <c r="D16" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B18" t="s">
         <v>370</v>
       </c>
@@ -3131,7 +3199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C19" t="s">
         <v>382</v>
       </c>
@@ -3142,7 +3210,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
         <v>427</v>
       </c>
@@ -3153,7 +3221,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
         <v>420</v>
       </c>
@@ -3164,7 +3232,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
         <v>421</v>
       </c>
@@ -3175,7 +3243,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
         <v>369</v>
       </c>
@@ -3189,7 +3257,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
         <v>430</v>
       </c>
@@ -3200,7 +3268,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
         <v>432</v>
       </c>
@@ -3211,7 +3279,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
         <v>433</v>
       </c>
@@ -3222,7 +3290,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
         <v>434</v>
       </c>
@@ -3233,7 +3301,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
         <v>435</v>
       </c>
@@ -3244,194 +3312,239 @@
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>467</v>
+      </c>
+      <c r="C31" t="s">
+        <v>375</v>
+      </c>
+      <c r="D31" t="s">
+        <v>367</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>468</v>
+      </c>
+      <c r="D32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E32" t="s">
+        <v>470</v>
+      </c>
+      <c r="F32" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>471</v>
+      </c>
+      <c r="D33" t="s">
+        <v>469</v>
+      </c>
+      <c r="E33" t="s">
+        <v>472</v>
+      </c>
+      <c r="F33" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>458</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>459</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
         <v>367</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C39" t="s">
         <v>20</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D39" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B40" t="s">
+        <v>466</v>
+      </c>
+      <c r="C40" t="s">
+        <v>465</v>
+      </c>
+      <c r="D40" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B41" t="s">
         <v>369</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C41" t="s">
+        <v>369</v>
+      </c>
+      <c r="D41" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
         <v>370</v>
       </c>
-      <c r="D36" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
-        <v>369</v>
-      </c>
-      <c r="C37" t="s">
-        <v>369</v>
-      </c>
-      <c r="D37" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>370</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C44" t="s">
         <v>375</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D44" t="s">
         <v>367</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E44" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
         <v>382</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D45" t="s">
         <v>364</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E45" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
         <v>427</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D46" t="s">
         <v>428</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E46" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
         <v>420</v>
-      </c>
-      <c r="D43" t="s">
-        <v>378</v>
-      </c>
-      <c r="E43" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C44" t="s">
-        <v>421</v>
-      </c>
-      <c r="D44" t="s">
-        <v>378</v>
-      </c>
-      <c r="E44" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
-        <v>369</v>
-      </c>
-      <c r="C46" t="s">
-        <v>375</v>
-      </c>
-      <c r="D46" t="s">
-        <v>367</v>
-      </c>
-      <c r="E46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C47" t="s">
-        <v>430</v>
       </c>
       <c r="D47" t="s">
         <v>378</v>
       </c>
       <c r="E47" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="D48" t="s">
         <v>378</v>
       </c>
       <c r="E48" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B50" t="s">
+        <v>369</v>
+      </c>
+      <c r="C50" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
+        <v>430</v>
+      </c>
+      <c r="D51" t="s">
+        <v>378</v>
+      </c>
+      <c r="E51" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>432</v>
+      </c>
+      <c r="D52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E52" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C49" t="s">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
         <v>433</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D53" t="s">
         <v>378</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E53" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C50" t="s">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
         <v>434</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D54" t="s">
         <v>436</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E54" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
         <v>435</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D55" t="s">
         <v>364</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E55" t="s">
         <v>438</v>
       </c>
     </row>

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="4" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="4" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="区域" sheetId="4" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="组件" sheetId="13" r:id="rId11"/>
     <sheet name="蓄电池" sheetId="14" r:id="rId12"/>
     <sheet name="控制器" sheetId="15" r:id="rId13"/>
+    <sheet name="地图" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK7" localSheetId="9">用户!$G$9</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="589">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1671,15 +1672,199 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outputState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>输出状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
+    <t>machineState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出状态  1：输出过载，0：输出正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：电池欠压  0：电池正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltageTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltageList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站id（必输）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inTotal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时刻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池电压电池状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取数示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池电压状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undervoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outStatus.undervoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池电流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1687,19 +1872,290 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>outputState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>machineState</t>
+    <t>chargeDischarge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outStatus.chargeDischarge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：电池充电  1：电池放电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0：电池充电  1：电池放电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄电池电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inTotal.totalVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inTotal.totalCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电池温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inList.power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inList.groupHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>charts/psMap.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAllStationMonitor.action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆变器功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐照度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日上网电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆变器状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.irradiationValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.accPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.activePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站显示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.inverterPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo，psAllInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Part_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.investor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Build_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Station_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.User_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Device_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Station_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.User_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.MachineState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站占地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏板数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站所属省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站地址所在经度，固定小数6位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站地址所在纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建站时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站管理权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大电站数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大用户数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1711,11 +2167,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>输出状态  1：输出过载，0：输出正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
+    <t>1：机器失效，0：正常，机器失效是报警</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1776,7 +2228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1792,6 +2244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1875,7 +2333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1903,6 +2361,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3064,18 +3528,19 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="28.625" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -3128,7 +3593,7 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -3149,10 +3614,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>370</v>
+        <v>475</v>
       </c>
       <c r="C14" t="s">
-        <v>370</v>
+        <v>476</v>
       </c>
       <c r="D14" t="s">
         <v>386</v>
@@ -3160,10 +3625,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
       <c r="C15" t="s">
-        <v>369</v>
+        <v>477</v>
       </c>
       <c r="D15" t="s">
         <v>387</v>
@@ -3171,380 +3636,680 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>479</v>
+      </c>
+      <c r="C17" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B18" t="s">
+        <v>480</v>
+      </c>
+      <c r="C18" t="s">
+        <v>480</v>
+      </c>
+      <c r="D18" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B20" t="s">
+        <v>483</v>
+      </c>
+      <c r="C20" t="s">
+        <v>484</v>
+      </c>
+      <c r="D20" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B21" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
         <v>462</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" t="s">
         <v>463</v>
       </c>
-      <c r="D16" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="D22" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>489</v>
+      </c>
+      <c r="C23" t="s">
+        <v>489</v>
+      </c>
+      <c r="D23" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B18" t="s">
-        <v>370</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C27" t="s">
         <v>375</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D27" t="s">
         <v>367</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C19" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
         <v>382</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D28" t="s">
         <v>364</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E28" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C20" t="s">
-        <v>427</v>
-      </c>
-      <c r="D20" t="s">
-        <v>428</v>
-      </c>
-      <c r="E20" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
         <v>420</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D29" t="s">
         <v>378</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E29" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
         <v>421</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D30" t="s">
         <v>378</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E30" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
-        <v>369</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C32" t="s">
         <v>375</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D32" t="s">
         <v>367</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C25" t="s">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
         <v>430</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D33" t="s">
         <v>378</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E33" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C34" t="s">
         <v>432</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D34" t="s">
         <v>378</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E34" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
         <v>433</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D35" t="s">
         <v>378</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E35" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
         <v>434</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D36" t="s">
         <v>436</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E36" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
         <v>435</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D37" t="s">
         <v>364</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E37" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B39" t="s">
+        <v>513</v>
+      </c>
+      <c r="C39" t="s">
+        <v>375</v>
+      </c>
+      <c r="D39" t="s">
+        <v>367</v>
+      </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>466</v>
+      </c>
+      <c r="D40" t="s">
         <v>467</v>
       </c>
-      <c r="C31" t="s">
+      <c r="E40" t="s">
+        <v>468</v>
+      </c>
+      <c r="F40" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>469</v>
+      </c>
+      <c r="D41" t="s">
+        <v>467</v>
+      </c>
+      <c r="E41" t="s">
+        <v>586</v>
+      </c>
+      <c r="F41" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>508</v>
+      </c>
+      <c r="D42" t="s">
+        <v>472</v>
+      </c>
+      <c r="E42" t="s">
+        <v>501</v>
+      </c>
+      <c r="F42" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>514</v>
+      </c>
+      <c r="D43" t="s">
+        <v>510</v>
+      </c>
+      <c r="E43" t="s">
+        <v>511</v>
+      </c>
+      <c r="F43" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>478</v>
+      </c>
+      <c r="C45" t="s">
         <v>375</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D45" t="s">
         <v>367</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E45" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
-        <v>468</v>
-      </c>
-      <c r="D32" t="s">
-        <v>469</v>
-      </c>
-      <c r="E32" t="s">
-        <v>470</v>
-      </c>
-      <c r="F32" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>471</v>
-      </c>
-      <c r="D33" t="s">
-        <v>469</v>
-      </c>
-      <c r="E33" t="s">
-        <v>472</v>
-      </c>
-      <c r="F33" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>458</v>
-      </c>
-      <c r="B36" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>459</v>
-      </c>
-      <c r="B37" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>367</v>
-      </c>
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D39" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
-        <v>466</v>
-      </c>
-      <c r="C40" t="s">
-        <v>465</v>
-      </c>
-      <c r="D40" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
-        <v>369</v>
-      </c>
-      <c r="C41" t="s">
-        <v>369</v>
-      </c>
-      <c r="D41" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
-        <v>370</v>
-      </c>
-      <c r="C44" t="s">
-        <v>375</v>
-      </c>
-      <c r="D44" t="s">
-        <v>367</v>
-      </c>
-      <c r="E44" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
-        <v>382</v>
-      </c>
-      <c r="D45" t="s">
-        <v>364</v>
-      </c>
-      <c r="E45" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>427</v>
+        <v>494</v>
       </c>
       <c r="D46" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="E46" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="D47" t="s">
         <v>378</v>
       </c>
       <c r="E47" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C48" t="s">
-        <v>421</v>
+        <v>520</v>
       </c>
       <c r="D48" t="s">
         <v>378</v>
       </c>
       <c r="E48" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
-        <v>369</v>
-      </c>
-      <c r="C50" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>495</v>
+      </c>
+      <c r="D49" t="s">
+        <v>496</v>
+      </c>
+      <c r="E49" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B51" t="s">
+        <v>526</v>
+      </c>
+      <c r="C51" t="s">
         <v>375</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D51" t="s">
         <v>367</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
-        <v>430</v>
-      </c>
-      <c r="D51" t="s">
-        <v>378</v>
-      </c>
-      <c r="E51" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>432</v>
+        <v>527</v>
       </c>
       <c r="D52" t="s">
         <v>378</v>
       </c>
       <c r="E52" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D53" t="s">
         <v>378</v>
       </c>
       <c r="E53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C54" t="s">
+        <v>433</v>
+      </c>
+      <c r="D54" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
-        <v>434</v>
-      </c>
-      <c r="D54" t="s">
-        <v>436</v>
-      </c>
-      <c r="E54" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>435</v>
+        <v>530</v>
       </c>
       <c r="D55" t="s">
         <v>364</v>
       </c>
       <c r="E55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
+        <v>382</v>
+      </c>
+      <c r="D56" t="s">
+        <v>364</v>
+      </c>
+      <c r="E56" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D59" s="10"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>512</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="D62" s="10"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="D63" s="10"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="D64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="10"/>
+      <c r="B65" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>531</v>
+      </c>
+      <c r="D65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>458</v>
+      </c>
+      <c r="B68" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B71" t="s">
+        <v>367</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B72" t="s">
+        <v>465</v>
+      </c>
+      <c r="C72" t="s">
+        <v>464</v>
+      </c>
+      <c r="D72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B73" t="s">
+        <v>369</v>
+      </c>
+      <c r="C73" t="s">
+        <v>369</v>
+      </c>
+      <c r="D73" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B76" t="s">
+        <v>370</v>
+      </c>
+      <c r="C76" t="s">
+        <v>375</v>
+      </c>
+      <c r="D76" t="s">
+        <v>367</v>
+      </c>
+      <c r="E76" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C77" t="s">
+        <v>382</v>
+      </c>
+      <c r="D77" t="s">
+        <v>364</v>
+      </c>
+      <c r="E77" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C78" t="s">
+        <v>427</v>
+      </c>
+      <c r="D78" t="s">
+        <v>428</v>
+      </c>
+      <c r="E78" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C79" t="s">
+        <v>420</v>
+      </c>
+      <c r="D79" t="s">
+        <v>378</v>
+      </c>
+      <c r="E79" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D80" t="s">
+        <v>378</v>
+      </c>
+      <c r="E80" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B82" t="s">
+        <v>369</v>
+      </c>
+      <c r="C82" t="s">
+        <v>375</v>
+      </c>
+      <c r="D82" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>430</v>
+      </c>
+      <c r="D83" t="s">
+        <v>378</v>
+      </c>
+      <c r="E83" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C84" t="s">
+        <v>432</v>
+      </c>
+      <c r="D84" t="s">
+        <v>378</v>
+      </c>
+      <c r="E84" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C85" t="s">
+        <v>433</v>
+      </c>
+      <c r="D85" t="s">
+        <v>378</v>
+      </c>
+      <c r="E85" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C86" t="s">
+        <v>434</v>
+      </c>
+      <c r="D86" t="s">
+        <v>436</v>
+      </c>
+      <c r="E86" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>435</v>
+      </c>
+      <c r="D87" t="s">
+        <v>364</v>
+      </c>
+      <c r="E87" t="s">
         <v>438</v>
       </c>
     </row>
@@ -3552,6 +4317,312 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="3" max="3" width="27.875" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>532</v>
+      </c>
+      <c r="B1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>571</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="D19" s="10"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>574</v>
+      </c>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>576</v>
+      </c>
+      <c r="D21" s="10"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>575</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D25" s="10"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>582</v>
+      </c>
+      <c r="D27" s="10"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10" t="s">
+        <v>568</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D29" s="10"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>585</v>
+      </c>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10" t="s">
+        <v>570</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>588</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -1948,226 +1948,226 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆变器功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辐照度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当日上网电量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逆变器状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左侧显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.irradiationValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.accPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.activePower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站显示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo.inverterPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monitorInfo，psAllInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.capacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Part_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.investor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.province</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Build_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Station_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.User_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Device_manage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.Station_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.User_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.MachineState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站占地面积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光伏板数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>psAllInfo.longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站所属省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站地址所在经度，固定小数6位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站地址所在纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建站时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电站管理权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大电站数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大用户数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：机器失效，0：正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：机器失效，0：正常，机器失效是报警</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>charts/psMap.jsp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>getAllStationMonitor.action</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆变器功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辐照度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发电量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日上网电量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆变器状态</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.irradiationValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.accPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.activePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站显示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.inverterPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo，psAllInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Part_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.investor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Build_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Station_manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.User_manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Device_manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Station_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.User_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.MachineState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站占地面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光伏板数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站所属省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站地址所在经度，固定小数6位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站地址所在纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建站时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站管理权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备管理权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大电站数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大用户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：机器失效，0：正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：机器失效，0：正常，机器失效是报警</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3530,7 +3530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -3870,10 +3870,10 @@
         <v>467</v>
       </c>
       <c r="E41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F41" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.15">
@@ -4325,13 +4325,13 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="35.625" customWidth="1"/>
+    <col min="2" max="2" width="43.75" customWidth="1"/>
     <col min="3" max="3" width="27.875" customWidth="1"/>
     <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
@@ -4341,117 +4341,117 @@
         <v>532</v>
       </c>
       <c r="B1" t="s">
-        <v>533</v>
+        <v>587</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" t="s">
         <v>552</v>
-      </c>
-      <c r="B3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D5" s="10"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D9" s="10"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="10"/>
       <c r="B10" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D10" s="10"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>12</v>
@@ -4461,17 +4461,17 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D16" s="10"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>379</v>
@@ -4481,148 +4481,149 @@
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D19" s="10"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D21" s="10"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D25" s="10"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D27" s="10"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="D28" s="10"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D29" s="10"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D30" s="10"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C31" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>586</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>588</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/WebRoot/folders/电力项目接口说明.xlsx
+++ b/WebRoot/folders/电力项目接口说明.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="4" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19320" windowHeight="7290" firstSheet="4" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="区域" sheetId="4" r:id="rId1"/>
@@ -20,17 +20,16 @@
     <sheet name="组件" sheetId="13" r:id="rId11"/>
     <sheet name="蓄电池" sheetId="14" r:id="rId12"/>
     <sheet name="控制器" sheetId="15" r:id="rId13"/>
-    <sheet name="地图" sheetId="16" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK7" localSheetId="9">用户!$G$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="463">
   <si>
     <t>建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1464,718 +1463,215 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>BigDecimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mpptTemp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>totalCurrent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制器中组件的输入不需要了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出返回数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态：1：输出过载，0：输出正常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采集时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入返回参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入返回数据示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getModule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getBatteryVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getControlOutShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toControlInShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getControlInShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>currHour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>module.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>battery.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>toBatteryVoltage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总数输出功率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>totalPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总数输出功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BigDecimal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mpptTemp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCurrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制器中组件的输入不需要了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出返回参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出返回数据示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态：1：输出过载，0：输出正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>current</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入返回参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入返回数据示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getModule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toBatteryVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getBatteryVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>toControlOutShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getControlOutShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>toControlInShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getControlInShow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>module.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>battery.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outputState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>machineState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出状态  1：输出过载，0：输出正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：电池欠压  0：电池正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voltageTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voltageList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站id（必输）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modelTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modelTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modelList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modelList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄电池</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inTotal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>currHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采集时刻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄电池电压电池状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示文字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取数示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄电池电压</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入示例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄电池电压状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>undervoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outStatus.undervoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄电池电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄电池电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chargeDischarge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>outStatus.chargeDischarge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：电池充电  1：电池放电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0：电池充电  1：电池放电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓄电池电流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inTotal.totalVoltage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>totalCurrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inTotal.totalCurrent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电池温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inList.power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inList.groupHour</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆变器功率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辐照度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前温度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发电量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当日上网电量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逆变器状态</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左侧显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.irradiationValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.temperature</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.accPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.activePower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.state</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站显示信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo.inverterPower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>monitorInfo，psAllInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.capacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.area</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Part_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.owner</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.investor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.province</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.latitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Build_time</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Station_manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.User_manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Device_manage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.Station_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.User_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.MachineState</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站占地面积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光伏板数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>业主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>psAllInfo.longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资方</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站所属省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站地址所在经度，固定小数6位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站地址所在纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建站时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电站管理权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户管理权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备管理权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大电站数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大用户数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：机器失效，0：正常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：机器失效，0：正常，机器失效是报警</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>charts/psMap.jsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAllStationMonitor.action</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2228,7 +1724,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2244,12 +1740,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2333,7 +1823,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2361,12 +1851,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2427,7 +1911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2459,10 +1943,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2494,7 +1977,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2670,74 +2152,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>238</v>
       </c>
@@ -2745,7 +2227,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>239</v>
       </c>
@@ -2753,7 +2235,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>53</v>
       </c>
@@ -2761,7 +2243,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3">
       <c r="B17" t="s">
         <v>240</v>
       </c>
@@ -2769,7 +2251,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3">
       <c r="B18" t="s">
         <v>241</v>
       </c>
@@ -2777,7 +2259,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3">
       <c r="B19" t="s">
         <v>242</v>
       </c>
@@ -2793,16 +2275,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="34.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -2825,7 +2307,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="39" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2846,7 +2328,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="26.25" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -2867,7 +2349,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="24.75" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -2888,7 +2370,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="24.75" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2909,7 +2391,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="24.75" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -2930,7 +2412,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="24.75" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -2951,7 +2433,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="64.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="64.5" thickBot="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2972,7 +2454,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="39" thickBot="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -3000,14 +2482,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -3016,46 +2498,46 @@
     <col min="5" max="5" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>361</v>
       </c>
       <c r="B1" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4">
       <c r="B7" t="s">
         <v>367</v>
       </c>
@@ -3066,7 +2548,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>364</v>
       </c>
@@ -3077,12 +2559,12 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4">
       <c r="B11" t="s">
         <v>368</v>
       </c>
@@ -3093,7 +2575,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4">
       <c r="B12" t="s">
         <v>369</v>
       </c>
@@ -3104,7 +2586,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>372</v>
       </c>
@@ -3115,12 +2597,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>370</v>
       </c>
@@ -3134,7 +2616,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="C20" t="s">
         <v>374</v>
       </c>
@@ -3145,7 +2627,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="C21" t="s">
         <v>381</v>
       </c>
@@ -3156,9 +2638,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="D22" t="s">
         <v>383</v>
@@ -3167,7 +2649,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>369</v>
       </c>
@@ -3181,9 +2663,9 @@
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="C25" t="s">
-        <v>380</v>
+        <v>456</v>
       </c>
       <c r="D25" t="s">
         <v>378</v>
@@ -3192,25 +2674,25 @@
         <v>390</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>440</v>
+      </c>
+      <c r="B30" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>443</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>444</v>
-      </c>
-      <c r="B31" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3221,14 +2703,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.625" customWidth="1"/>
     <col min="2" max="2" width="11.375" customWidth="1"/>
@@ -3237,7 +2719,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>392</v>
       </c>
@@ -3248,7 +2730,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">
         <v>395</v>
       </c>
@@ -3257,7 +2739,7 @@
       </c>
       <c r="C2" s="10"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
         <v>397</v>
       </c>
@@ -3266,21 +2748,21 @@
         <v>398</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" s="10" t="s">
         <v>399</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" s="10" t="s">
         <v>400</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="10" t="s">
         <v>401</v>
       </c>
@@ -3289,7 +2771,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="10" t="s">
         <v>403</v>
       </c>
@@ -3298,7 +2780,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="10" t="s">
         <v>405</v>
       </c>
@@ -3307,7 +2789,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="10" t="s">
         <v>407</v>
       </c>
@@ -3316,7 +2798,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="10" t="s">
         <v>409</v>
       </c>
@@ -3325,43 +2807,43 @@
       </c>
       <c r="C10" s="10"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B15" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="B16" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>367</v>
       </c>
@@ -3372,7 +2854,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>364</v>
       </c>
@@ -3383,12 +2865,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>367</v>
       </c>
@@ -3399,7 +2881,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>369</v>
       </c>
@@ -3410,7 +2892,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="B24" t="s">
         <v>369</v>
       </c>
@@ -3421,12 +2903,12 @@
         <v>387</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>370</v>
       </c>
@@ -3440,62 +2922,62 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="C31" t="s">
+        <v>461</v>
+      </c>
+      <c r="D31" t="s">
         <v>412</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="C32" t="s">
+        <v>382</v>
+      </c>
+      <c r="D32" t="s">
+        <v>413</v>
+      </c>
+      <c r="E32" t="s">
         <v>414</v>
       </c>
-      <c r="E31" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="2:5">
+      <c r="C33" t="s">
         <v>415</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
+        <v>412</v>
+      </c>
+      <c r="E33" t="s">
         <v>416</v>
       </c>
-      <c r="E32" t="s">
+    </row>
+    <row r="34" spans="2:5">
+      <c r="C34" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
+      <c r="D34" t="s">
+        <v>412</v>
+      </c>
+      <c r="E34" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="C35" t="s">
         <v>418</v>
       </c>
-      <c r="D33" t="s">
-        <v>414</v>
-      </c>
-      <c r="E33" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
+      <c r="D35" t="s">
+        <v>412</v>
+      </c>
+      <c r="E35" t="s">
         <v>420</v>
       </c>
-      <c r="D34" t="s">
-        <v>414</v>
-      </c>
-      <c r="E34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>421</v>
-      </c>
-      <c r="D35" t="s">
-        <v>414</v>
-      </c>
-      <c r="E35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>369</v>
       </c>
@@ -3509,7 +2991,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:5">
       <c r="C38" t="s">
         <v>380</v>
       </c>
@@ -3527,54 +3009,52 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="28.625" customWidth="1"/>
-    <col min="4" max="4" width="31.5" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4">
       <c r="B8" t="s">
         <v>367</v>
       </c>
@@ -3585,7 +3065,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4">
       <c r="B9" t="s">
         <v>364</v>
       </c>
@@ -3593,15 +3073,15 @@
         <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" t="s">
         <v>367</v>
       </c>
@@ -3612,1012 +3092,349 @@
         <v>371</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4">
       <c r="B14" t="s">
-        <v>475</v>
+        <v>369</v>
       </c>
       <c r="C14" t="s">
-        <v>476</v>
+        <v>370</v>
       </c>
       <c r="D14" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4">
       <c r="B15" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="C15" t="s">
-        <v>477</v>
+        <v>369</v>
       </c>
       <c r="D15" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B17" t="s">
-        <v>479</v>
-      </c>
-      <c r="C17" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
-        <v>480</v>
+        <v>370</v>
       </c>
       <c r="C18" t="s">
-        <v>480</v>
+        <v>375</v>
       </c>
       <c r="D18" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
-        <v>481</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="C19" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
-        <v>483</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="D19" t="s">
+        <v>364</v>
+      </c>
+      <c r="E19" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="C20" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="D20" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
-        <v>485</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="E20" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="C21" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
-        <v>462</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="D21" t="s">
+        <v>378</v>
+      </c>
+      <c r="E21" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="C22" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
       <c r="D22" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
-        <v>489</v>
-      </c>
-      <c r="C23" t="s">
-        <v>489</v>
-      </c>
-      <c r="D23" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E22" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>375</v>
+      </c>
+      <c r="D24" t="s">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="C25" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" t="s">
+        <v>378</v>
+      </c>
+      <c r="E25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="C26" t="s">
+        <v>429</v>
+      </c>
+      <c r="D26" t="s">
+        <v>378</v>
+      </c>
+      <c r="E26" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="C27" t="s">
+        <v>430</v>
+      </c>
+      <c r="D27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E27" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28" t="s">
+        <v>431</v>
+      </c>
+      <c r="D28" t="s">
+        <v>433</v>
+      </c>
+      <c r="E28" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="C29" t="s">
+        <v>432</v>
+      </c>
+      <c r="D29" t="s">
+        <v>364</v>
+      </c>
+      <c r="E29" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="B35" t="s">
+        <v>367</v>
+      </c>
+      <c r="C35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" t="s">
+        <v>369</v>
+      </c>
+      <c r="C36" t="s">
+        <v>370</v>
+      </c>
+      <c r="D36" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="B37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" t="s">
+        <v>369</v>
+      </c>
+      <c r="D37" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="B40" t="s">
+        <v>370</v>
+      </c>
+      <c r="C40" t="s">
+        <v>375</v>
+      </c>
+      <c r="D40" t="s">
+        <v>367</v>
+      </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="C41" t="s">
+        <v>382</v>
+      </c>
+      <c r="D41" t="s">
+        <v>364</v>
+      </c>
+      <c r="E41" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="C42" t="s">
+        <v>424</v>
+      </c>
+      <c r="D42" t="s">
+        <v>425</v>
+      </c>
+      <c r="E42" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
-        <v>491</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="43" spans="1:5">
+      <c r="C43" t="s">
+        <v>417</v>
+      </c>
+      <c r="D43" t="s">
+        <v>378</v>
+      </c>
+      <c r="E43" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="C44" t="s">
+        <v>418</v>
+      </c>
+      <c r="D44" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="B46" t="s">
+        <v>369</v>
+      </c>
+      <c r="C46" t="s">
         <v>375</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D46" t="s">
         <v>367</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E46" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
-        <v>382</v>
-      </c>
-      <c r="D28" t="s">
-        <v>364</v>
-      </c>
-      <c r="E28" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>420</v>
-      </c>
-      <c r="D29" t="s">
-        <v>378</v>
-      </c>
-      <c r="E29" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>421</v>
-      </c>
-      <c r="D30" t="s">
-        <v>378</v>
-      </c>
-      <c r="E30" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
-        <v>492</v>
-      </c>
-      <c r="C32" t="s">
-        <v>375</v>
-      </c>
-      <c r="D32" t="s">
-        <v>367</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C33" t="s">
-        <v>430</v>
-      </c>
-      <c r="D33" t="s">
-        <v>378</v>
-      </c>
-      <c r="E33" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C34" t="s">
-        <v>432</v>
-      </c>
-      <c r="D34" t="s">
-        <v>378</v>
-      </c>
-      <c r="E34" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
-        <v>433</v>
-      </c>
-      <c r="D35" t="s">
-        <v>378</v>
-      </c>
-      <c r="E35" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C36" t="s">
-        <v>434</v>
-      </c>
-      <c r="D36" t="s">
-        <v>436</v>
-      </c>
-      <c r="E36" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C37" t="s">
-        <v>435</v>
-      </c>
-      <c r="D37" t="s">
-        <v>364</v>
-      </c>
-      <c r="E37" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
-        <v>513</v>
-      </c>
-      <c r="C39" t="s">
-        <v>375</v>
-      </c>
-      <c r="D39" t="s">
-        <v>367</v>
-      </c>
-      <c r="E39" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C40" t="s">
-        <v>466</v>
-      </c>
-      <c r="D40" t="s">
-        <v>467</v>
-      </c>
-      <c r="E40" t="s">
-        <v>468</v>
-      </c>
-      <c r="F40" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C41" t="s">
-        <v>469</v>
-      </c>
-      <c r="D41" t="s">
-        <v>467</v>
-      </c>
-      <c r="E41" t="s">
-        <v>584</v>
-      </c>
-      <c r="F41" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C42" t="s">
-        <v>508</v>
-      </c>
-      <c r="D42" t="s">
-        <v>472</v>
-      </c>
-      <c r="E42" t="s">
-        <v>501</v>
-      </c>
-      <c r="F42" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C43" t="s">
-        <v>514</v>
-      </c>
-      <c r="D43" t="s">
-        <v>510</v>
-      </c>
-      <c r="E43" t="s">
-        <v>511</v>
-      </c>
-      <c r="F43" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
-        <v>478</v>
-      </c>
-      <c r="C45" t="s">
-        <v>375</v>
-      </c>
-      <c r="D45" t="s">
-        <v>367</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
-        <v>494</v>
-      </c>
-      <c r="D46" t="s">
-        <v>378</v>
-      </c>
-      <c r="E46" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="C47" t="s">
-        <v>506</v>
+        <v>427</v>
       </c>
       <c r="D47" t="s">
         <v>378</v>
       </c>
       <c r="E47" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="C48" t="s">
-        <v>520</v>
+        <v>429</v>
       </c>
       <c r="D48" t="s">
         <v>378</v>
       </c>
       <c r="E48" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5">
       <c r="C49" t="s">
-        <v>495</v>
+        <v>430</v>
       </c>
       <c r="D49" t="s">
-        <v>496</v>
+        <v>378</v>
       </c>
       <c r="E49" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
-        <v>526</v>
-      </c>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5">
+      <c r="C50" t="s">
+        <v>431</v>
+      </c>
+      <c r="D50" t="s">
+        <v>433</v>
+      </c>
+      <c r="E50" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5">
       <c r="C51" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="D51" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C52" t="s">
-        <v>527</v>
-      </c>
-      <c r="D52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E52" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C53" t="s">
-        <v>432</v>
-      </c>
-      <c r="D53" t="s">
-        <v>378</v>
-      </c>
-      <c r="E53" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
-        <v>433</v>
-      </c>
-      <c r="D54" t="s">
-        <v>378</v>
-      </c>
-      <c r="E54" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C55" t="s">
-        <v>530</v>
-      </c>
-      <c r="D55" t="s">
-        <v>364</v>
-      </c>
-      <c r="E55" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C56" t="s">
-        <v>382</v>
-      </c>
-      <c r="D56" t="s">
-        <v>364</v>
-      </c>
-      <c r="E56" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="D62" s="10"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="D63" s="10"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="D64" s="10"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="10"/>
-      <c r="B65" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="D65" s="10"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="12"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>458</v>
-      </c>
-      <c r="B68" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>459</v>
-      </c>
-      <c r="B69" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
-        <v>367</v>
-      </c>
-      <c r="C71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
-        <v>465</v>
-      </c>
-      <c r="C72" t="s">
-        <v>464</v>
-      </c>
-      <c r="D72" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
-        <v>369</v>
-      </c>
-      <c r="C73" t="s">
-        <v>369</v>
-      </c>
-      <c r="D73" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B76" t="s">
-        <v>370</v>
-      </c>
-      <c r="C76" t="s">
-        <v>375</v>
-      </c>
-      <c r="D76" t="s">
-        <v>367</v>
-      </c>
-      <c r="E76" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C77" t="s">
-        <v>382</v>
-      </c>
-      <c r="D77" t="s">
-        <v>364</v>
-      </c>
-      <c r="E77" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C78" t="s">
-        <v>427</v>
-      </c>
-      <c r="D78" t="s">
-        <v>428</v>
-      </c>
-      <c r="E78" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C79" t="s">
-        <v>420</v>
-      </c>
-      <c r="D79" t="s">
-        <v>378</v>
-      </c>
-      <c r="E79" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C80" t="s">
-        <v>421</v>
-      </c>
-      <c r="D80" t="s">
-        <v>378</v>
-      </c>
-      <c r="E80" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>369</v>
-      </c>
-      <c r="C82" t="s">
-        <v>375</v>
-      </c>
-      <c r="D82" t="s">
-        <v>367</v>
-      </c>
-      <c r="E82" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C83" t="s">
-        <v>430</v>
-      </c>
-      <c r="D83" t="s">
-        <v>378</v>
-      </c>
-      <c r="E83" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C84" t="s">
-        <v>432</v>
-      </c>
-      <c r="D84" t="s">
-        <v>378</v>
-      </c>
-      <c r="E84" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C85" t="s">
-        <v>433</v>
-      </c>
-      <c r="D85" t="s">
-        <v>378</v>
-      </c>
-      <c r="E85" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C86" t="s">
-        <v>434</v>
-      </c>
-      <c r="D86" t="s">
-        <v>436</v>
-      </c>
-      <c r="E86" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C87" t="s">
         <v>435</v>
-      </c>
-      <c r="D87" t="s">
-        <v>364</v>
-      </c>
-      <c r="E87" t="s">
-        <v>438</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="14.375" customWidth="1"/>
-    <col min="2" max="2" width="43.75" customWidth="1"/>
-    <col min="3" max="3" width="27.875" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>532</v>
-      </c>
-      <c r="B1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>533</v>
-      </c>
-      <c r="B2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>550</v>
-      </c>
-      <c r="B3" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
-        <v>543</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
-        <v>551</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>534</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>535</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>569</v>
-      </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>570</v>
-      </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>571</v>
-      </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>572</v>
-      </c>
-      <c r="D20" s="10"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>574</v>
-      </c>
-      <c r="D21" s="10"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>575</v>
-      </c>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
-        <v>573</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>576</v>
-      </c>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="D24" s="10"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>578</v>
-      </c>
-      <c r="D25" s="10"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>579</v>
-      </c>
-      <c r="D26" s="10"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>580</v>
-      </c>
-      <c r="D27" s="10"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>581</v>
-      </c>
-      <c r="D28" s="10"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
-        <v>566</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>582</v>
-      </c>
-      <c r="D29" s="10"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10" t="s">
-        <v>567</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>583</v>
-      </c>
-      <c r="D30" s="10"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10" t="s">
-        <v>568</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>584</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -4628,66 +3445,66 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.25" customWidth="1"/>
     <col min="3" max="3" width="43.125" customWidth="1"/>
     <col min="4" max="4" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="B13" t="s">
         <v>9</v>
       </c>
@@ -4695,7 +3512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>10</v>
       </c>
@@ -4703,7 +3520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -4711,7 +3528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>39</v>
       </c>
@@ -4719,22 +3536,22 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4">
       <c r="B21" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4">
       <c r="B25" t="s">
         <v>19</v>
       </c>
@@ -4745,7 +3562,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4">
       <c r="B26" t="s">
         <v>61</v>
       </c>
@@ -4753,7 +3570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="B27" t="s">
         <v>62</v>
       </c>
@@ -4764,7 +3581,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="B28" t="s">
         <v>63</v>
       </c>
@@ -4775,7 +3592,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="B29" t="s">
         <v>23</v>
       </c>
@@ -4786,7 +3603,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="B30" t="s">
         <v>26</v>
       </c>
@@ -4794,7 +3611,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -4805,7 +3622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="B32" t="s">
         <v>31</v>
       </c>
@@ -4816,7 +3633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:4">
       <c r="B33" t="s">
         <v>34</v>
       </c>
@@ -4835,14 +3652,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="22.125" customWidth="1"/>
@@ -4851,57 +3668,57 @@
     <col min="5" max="5" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="B7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="B8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="B9" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="B10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="B14" t="s">
         <v>46</v>
       </c>
@@ -4909,7 +3726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="B15" t="s">
         <v>47</v>
       </c>
@@ -4917,7 +3734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="B16" t="s">
         <v>49</v>
       </c>
@@ -4925,7 +3742,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>51</v>
       </c>
@@ -4933,7 +3750,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>53</v>
       </c>
@@ -4941,7 +3758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>55</v>
       </c>
@@ -4949,7 +3766,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>57</v>
       </c>
@@ -4957,22 +3774,22 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="B23" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="B27" t="s">
         <v>65</v>
       </c>
@@ -4986,7 +3803,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="B28" t="s">
         <v>66</v>
       </c>
@@ -4997,7 +3814,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>68</v>
       </c>
@@ -5011,7 +3828,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>74</v>
       </c>
@@ -5025,7 +3842,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>75</v>
       </c>
@@ -5039,7 +3856,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>76</v>
       </c>
@@ -5050,7 +3867,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>77</v>
       </c>
@@ -5064,7 +3881,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>78</v>
       </c>
@@ -5078,7 +3895,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>79</v>
       </c>
@@ -5092,7 +3909,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>175</v>
       </c>
@@ -5114,14 +3931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="36.625" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
@@ -5129,137 +3946,137 @@
     <col min="5" max="5" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="B26" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="B31" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5">
       <c r="B35" t="s">
         <v>65</v>
       </c>
@@ -5273,7 +4090,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5">
       <c r="B36" t="s">
         <v>187</v>
       </c>
@@ -5284,7 +4101,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5">
       <c r="B37" t="s">
         <v>188</v>
       </c>
@@ -5298,7 +4115,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5">
       <c r="B38" t="s">
         <v>189</v>
       </c>
@@ -5312,7 +4129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5">
       <c r="B39" t="s">
         <v>190</v>
       </c>
@@ -5323,7 +4140,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5">
       <c r="B40" t="s">
         <v>191</v>
       </c>
@@ -5337,7 +4154,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5">
       <c r="B41" t="s">
         <v>192</v>
       </c>
@@ -5348,7 +4165,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5">
       <c r="B42" t="s">
         <v>328</v>
       </c>
@@ -5362,7 +4179,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5">
       <c r="B43" t="s">
         <v>331</v>
       </c>
@@ -5376,52 +4193,52 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5">
       <c r="B45" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5">
       <c r="B46" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5">
       <c r="B47" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5">
       <c r="B48" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:2">
       <c r="B49" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:2">
       <c r="B51" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:2">
       <c r="B52" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:2">
       <c r="B53" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:2">
       <c r="B54" t="s">
         <v>324</v>
       </c>
@@ -5434,14 +4251,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="19.75" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
@@ -5449,72 +4266,72 @@
     <col min="5" max="5" width="21.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1">
       <c r="A16" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="B17" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="B18" t="s">
         <v>217</v>
       </c>
@@ -5522,7 +4339,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="B19" t="s">
         <v>218</v>
       </c>
@@ -5530,7 +4347,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="B20" t="s">
         <v>219</v>
       </c>
@@ -5538,7 +4355,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="B21" t="s">
         <v>220</v>
       </c>
@@ -5546,7 +4363,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>221</v>
       </c>
@@ -5554,22 +4371,22 @@
         <v>337</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="B25" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5">
       <c r="B28" t="s">
         <v>65</v>
       </c>
@@ -5583,7 +4400,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>226</v>
       </c>
@@ -5594,7 +4411,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5">
       <c r="B30" t="s">
         <v>227</v>
       </c>
@@ -5608,7 +4425,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5">
       <c r="B31" t="s">
         <v>228</v>
       </c>
@@ -5622,7 +4439,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5">
       <c r="B32" t="s">
         <v>229</v>
       </c>
@@ -5633,7 +4450,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>230</v>
       </c>
@@ -5647,7 +4464,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>112</v>
       </c>
@@ -5658,7 +4475,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>325</v>
       </c>
@@ -5680,14 +4497,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView topLeftCell="A112" workbookViewId="0">
       <selection activeCell="H113" sqref="H113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="36.75" customWidth="1"/>
@@ -5696,497 +4513,497 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="B4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="B5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="B6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="B7" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
       <c r="B19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3">
       <c r="B20" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="C25" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3">
       <c r="C26" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3">
       <c r="C27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3">
       <c r="C28" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3">
       <c r="C30" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3">
       <c r="C31" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3">
       <c r="C32" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:3">
       <c r="C38" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:3">
       <c r="C40" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:3">
       <c r="C41" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:3">
       <c r="C42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:3">
       <c r="C43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:3">
       <c r="C45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="46" spans="3:3">
       <c r="C46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:3">
       <c r="C47" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:3">
       <c r="C48" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:3">
       <c r="C50" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:3">
       <c r="C51" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:3">
       <c r="C52" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:3">
       <c r="C53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:3">
       <c r="C55" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:3">
       <c r="C56" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:3">
       <c r="C57" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:3">
       <c r="C58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:3">
       <c r="C60" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:3">
       <c r="C61" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:3">
       <c r="C62" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:3">
       <c r="C63" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:3">
       <c r="C65" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:3">
       <c r="C66" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:3">
       <c r="C67" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:3">
       <c r="C68" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="70" spans="3:3">
       <c r="C70" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="71" spans="3:3">
       <c r="C71" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="72" spans="3:3">
       <c r="C72" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="73" spans="3:3">
       <c r="C73" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="75" spans="3:3">
       <c r="C75" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="76" spans="3:3">
       <c r="C76" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="77" spans="3:3">
       <c r="C77" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="78" spans="3:3">
       <c r="C78" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="80" spans="3:3">
       <c r="C80" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="81" spans="3:3">
       <c r="C81" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="82" spans="3:3">
       <c r="C82" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="83" spans="3:3">
       <c r="C83" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:3">
       <c r="C85" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:3">
       <c r="C86" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:3">
       <c r="C87" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:3">
       <c r="C88" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="90" spans="3:3">
       <c r="C90" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="91" spans="3:3">
       <c r="C91" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:3">
       <c r="C92" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:3">
       <c r="C93" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="95" spans="3:3">
       <c r="C95" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="96" spans="3:3">
       <c r="C96" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="97" spans="3:3">
       <c r="C97" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="98" spans="3:3">
       <c r="C98" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="100" spans="3:3">
       <c r="C100" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="101" spans="3:3">
       <c r="C101" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="102" spans="3:3">
       <c r="C102" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="103" spans="3:3">
       <c r="C103" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="105" spans="3:3">
       <c r="C105" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="106" spans="3:3">
       <c r="C106" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="107" spans="3:3">
       <c r="C107" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="108" spans="3:3">
       <c r="C108" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="110" spans="3:3">
       <c r="C110" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="111" spans="3:3">
       <c r="C111" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.15">
+    <row r="112" spans="3:3">
       <c r="C112" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:5">
       <c r="C113" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:5">
       <c r="C115" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:5">
       <c r="B118" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:5">
       <c r="A120" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:5">
       <c r="B121" t="s">
         <v>65</v>
       </c>
@@ -6200,7 +5017,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:5">
       <c r="B122" t="s">
         <v>163</v>
       </c>
@@ -6211,7 +5028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:5">
       <c r="B123" t="s">
         <v>164</v>
       </c>
@@ -6225,7 +5042,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:5">
       <c r="B124" t="s">
         <v>170</v>
       </c>
@@ -6239,7 +5056,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:5">
       <c r="B125" t="s">
         <v>171</v>
       </c>
@@ -6250,7 +5067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:5">
       <c r="B126" t="s">
         <v>172</v>
       </c>
@@ -6264,7 +5081,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:5">
       <c r="B127" t="s">
         <v>173</v>
       </c>
@@ -6282,141 +5099,141 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="B2" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="B9" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="B11" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="B12" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="B13" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="B14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="B15" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="B16" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="B17" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="B18" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="B19" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="B20" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="B21" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="B22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="B23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="B24" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="B25" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="B26" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="B27" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="B32" t="s">
         <v>360</v>
       </c>
@@ -6429,16 +5246,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="34.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -6461,7 +5278,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="77.25" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6482,7 +5299,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="39" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6503,7 +5320,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="39" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -6524,7 +5341,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="26.25" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -6545,7 +5362,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="26.25" thickBot="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -6566,7 +5383,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="24.75" thickBot="1">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -6587,7 +5404,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="24.75" thickBot="1">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -6608,7 +5425,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="26.25" thickBot="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -6629,7 +5446,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="51.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="51.75" thickBot="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -6650,7 +5467,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="26.25" thickBot="1">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -6671,7 +5488,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="24.75" thickBot="1">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -6692,7 +5509,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="26.25" thickBot="1">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -6713,7 +5530,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="26.25" thickBot="1">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -6734,7 +5551,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="26.25" thickBot="1">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -6755,7 +5572,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="26.25" thickBot="1">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -6776,7 +5593,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="26.25" thickBot="1">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -6805,16 +5622,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="34.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="34.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -6837,7 +5654,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="39" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="39" thickBot="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -6858,7 +5675,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="24.75" thickBot="1">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -6879,7 +5696,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="24.75" thickBot="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -6900,7 +5717,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="77.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="77.25" thickBot="1">
       <c r="A5" s="7">
         <v>4</v>
       </c>
